--- a/docs/単体テスト仕様書.xlsx
+++ b/docs/単体テスト仕様書.xlsx
@@ -82,15 +82,18 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="MS P ゴシック"/>
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>百束 遼平:</t>
+          <t>すべてやるのは確実だが時間(=金)がかかりすぎるため、エラーが出やすそうな値を代表値としてテストする</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -99,8 +102,21 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">
-すべてやるのは確実だが時間(=金)がかかりすぎるため、エラーが出やすそうな値を代表値としてテストする</t>
+          <t>工数に関するテスト内容を考えて書いてみよう。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>稼働割合合計の算出に関するテスト内容を考えて書いてみよう</t>
         </r>
       </text>
     </comment>
@@ -109,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>小分類</t>
   </si>
@@ -548,118 +564,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>勤務時間が0時間0分、稼働割合1が0%⇒0時間0分</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勤務時間が9時間30分、稼働割合1が0%⇒0時間0分</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勤務時間が9時間0分、稼働割合1が50%⇒4時間30分</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勤務時間が23時間50分、稼働割合1が100%⇒23時間50分</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>稼働割合合計の算出</t>
     <rPh sb="0" eb="2">
       <t>カドウ</t>
@@ -693,50 +597,6 @@
       <t>カドウ</t>
     </rPh>
     <rPh sb="20" eb="22">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>稼働割合1が10%、稼働割合2が20%、稼働割合3が30%⇒60%</t>
-    <rPh sb="0" eb="2">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>稼働割合1が100%、稼働割合2が100%、稼働割合3が100%⇒300%</t>
-    <rPh sb="0" eb="2">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ワリアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
       <t>ワリアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -986,6 +846,34 @@
   </si>
   <si>
     <t>51ケースくらい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務時間が0時間0分、稼働割合が0%⇒0時間0分</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -996,11 +884,11 @@
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="189" formatCode="m/d"/>
-    <numFmt numFmtId="190" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1186,16 +1074,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,6 +1196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1624,9 +1510,9 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="13"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1709,10 +1595,10 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="12"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="13" xfId="19" quotePrefix="1"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="13" xfId="19"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="19" quotePrefix="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="19"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1721,31 +1607,10 @@
     <xf numFmtId="49" fontId="4" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="48">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1754,6 +1619,30 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="49"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="50"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="44"/>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="25" borderId="12" xfId="48" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2630,38 +2519,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="2">
@@ -2669,12 +2558,12 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="21"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="12">
       <c r="A4" s="2"/>
@@ -2682,12 +2571,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="12">
       <c r="A5" s="2"/>
@@ -2695,16 +2584,16 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="7">
         <v>42970</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="12">
       <c r="A6" s="2"/>
@@ -2712,16 +2601,16 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7">
         <v>42970</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="12">
       <c r="A7" s="2"/>
@@ -2729,12 +2618,12 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="12">
       <c r="A8" s="2"/>
@@ -2742,12 +2631,12 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="12">
       <c r="A9" s="2"/>
@@ -2755,12 +2644,12 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="12">
       <c r="A10" s="2"/>
@@ -2768,12 +2657,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="12">
       <c r="A11" s="2"/>
@@ -2781,12 +2670,12 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="12">
       <c r="A12" s="2"/>
@@ -2794,12 +2683,12 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="12">
       <c r="A13" s="2"/>
@@ -2807,12 +2696,12 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="12">
       <c r="A14" s="2"/>
@@ -2820,12 +2709,12 @@
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="12">
       <c r="A15" s="2"/>
@@ -2833,12 +2722,12 @@
       <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="12">
       <c r="A16" s="2"/>
@@ -2846,12 +2735,12 @@
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="12">
       <c r="A17" s="2"/>
@@ -2859,12 +2748,12 @@
       <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="12">
       <c r="A18" s="2"/>
@@ -2872,12 +2761,12 @@
       <c r="C18" s="1">
         <v>8</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="12">
       <c r="A19" s="2"/>
@@ -2885,12 +2774,12 @@
       <c r="C19" s="1">
         <v>9</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="12">
       <c r="A20" s="2"/>
@@ -2898,12 +2787,12 @@
       <c r="C20" s="1">
         <v>10</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>63</v>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="2">
@@ -2911,12 +2800,12 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="12">
       <c r="A22" s="2"/>
@@ -2924,12 +2813,12 @@
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="12">
       <c r="A23" s="2"/>
@@ -2937,12 +2826,12 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="12">
       <c r="A24" s="2"/>
@@ -2950,12 +2839,12 @@
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="12">
       <c r="A25" s="2"/>
@@ -2963,12 +2852,12 @@
       <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="12">
       <c r="A26" s="2"/>
@@ -2976,12 +2865,12 @@
       <c r="C26" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="12">
       <c r="A27" s="2"/>
@@ -2989,12 +2878,12 @@
       <c r="C27" s="1">
         <v>5</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="12">
       <c r="A28" s="2"/>
@@ -3002,12 +2891,12 @@
       <c r="C28" s="2">
         <v>6</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="12">
       <c r="A29" s="2"/>
@@ -3015,12 +2904,12 @@
       <c r="C29" s="1">
         <v>7</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="12">
       <c r="A30" s="2"/>
@@ -3028,12 +2917,12 @@
       <c r="C30" s="2">
         <v>8</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="12">
       <c r="A31" s="2"/>
@@ -3041,12 +2930,12 @@
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="12">
       <c r="A32" s="2"/>
@@ -3054,12 +2943,12 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="12">
       <c r="A33" s="2"/>
@@ -3067,12 +2956,12 @@
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="12">
       <c r="A34" s="2"/>
@@ -3080,12 +2969,12 @@
       <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="12">
       <c r="A35" s="2"/>
@@ -3093,12 +2982,12 @@
       <c r="C35" s="1">
         <v>4</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="12">
       <c r="A36" s="2"/>
@@ -3106,12 +2995,12 @@
       <c r="C36" s="2">
         <v>5</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="12">
       <c r="A37" s="2"/>
@@ -3119,12 +3008,12 @@
       <c r="C37" s="1">
         <v>6</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" ht="12">
       <c r="A38" s="2"/>
@@ -3132,12 +3021,12 @@
       <c r="C38" s="2">
         <v>7</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" ht="12">
       <c r="A39" s="2"/>
@@ -3145,12 +3034,12 @@
       <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>43</v>
+      <c r="D39" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="12">
       <c r="A40" s="2"/>
@@ -3158,12 +3047,10 @@
       <c r="C40" s="2">
         <v>9</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="D40" s="22"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="12">
       <c r="A41" s="2"/>
@@ -3171,12 +3058,10 @@
       <c r="C41" s="1">
         <v>10</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="D41" s="22"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="12">
       <c r="A42" s="2"/>
@@ -3184,12 +3069,10 @@
       <c r="C42" s="2">
         <v>11</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="D42" s="22"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" ht="12">
       <c r="A43" s="2"/>
@@ -3197,12 +3080,12 @@
         <v>3</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="20" t="s">
-        <v>47</v>
+      <c r="D43" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" ht="12">
       <c r="A44" s="2"/>
@@ -3210,12 +3093,12 @@
       <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>58</v>
+      <c r="D44" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" ht="12">
       <c r="A45" s="2"/>
@@ -3223,12 +3106,12 @@
       <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>59</v>
+      <c r="D45" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" ht="12">
       <c r="A46" s="2"/>
@@ -3236,12 +3119,12 @@
       <c r="C46" s="1">
         <v>3</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>60</v>
+      <c r="D46" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" ht="12">
       <c r="A47" s="2"/>
@@ -3249,12 +3132,12 @@
       <c r="C47" s="1">
         <v>4</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>48</v>
+      <c r="D47" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1">
       <c r="A48" s="2"/>
@@ -3262,12 +3145,10 @@
       <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="D48" s="22"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1">
       <c r="A49" s="2"/>
@@ -3275,12 +3156,10 @@
       <c r="C49" s="1">
         <v>6</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="D49" s="22"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="14.4">
       <c r="A50" s="2">
@@ -3288,12 +3167,12 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="19" t="s">
-        <v>51</v>
+      <c r="D50" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" ht="12">
       <c r="A51" s="2"/>
@@ -3301,12 +3180,12 @@
         <v>1</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="20" t="s">
-        <v>52</v>
+      <c r="D51" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" ht="24">
       <c r="A52" s="2"/>
@@ -3314,12 +3193,12 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>56</v>
+      <c r="D52" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" ht="24">
       <c r="A53" s="2"/>
@@ -3327,12 +3206,12 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>55</v>
+      <c r="D53" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" ht="24">
       <c r="A54" s="2"/>
@@ -3340,12 +3219,12 @@
       <c r="C54" s="2">
         <v>3</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>53</v>
+      <c r="D54" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7" ht="24">
       <c r="A55" s="2"/>
@@ -3353,12 +3232,12 @@
       <c r="C55" s="1">
         <v>4</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>54</v>
+      <c r="D55" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" ht="24">
       <c r="A56" s="2"/>
@@ -3366,12 +3245,12 @@
       <c r="C56" s="2">
         <v>5</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>57</v>
+      <c r="D56" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1">
       <c r="A57" s="2"/>
@@ -3380,7 +3259,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="21"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1">
       <c r="A58" s="2"/>
@@ -3389,7 +3268,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1">
       <c r="A59" s="2"/>
@@ -3398,7 +3277,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1">
       <c r="A60" s="2"/>
@@ -3407,7 +3286,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1">
       <c r="A61" s="2"/>
@@ -3416,7 +3295,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1">
       <c r="A62" s="2"/>
@@ -3425,8 +3304,8 @@
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="21" t="s">
-        <v>64</v>
+      <c r="G62" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/docs/単体テスト仕様書.xlsx
+++ b/docs/単体テスト仕様書.xlsx
@@ -1619,6 +1619,9 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="49"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="50"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="44"/>
+    <xf numFmtId="49" fontId="4" fillId="25" borderId="12" xfId="48" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,9 +1642,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="25" borderId="12" xfId="48" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2519,38 +2519,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="2">
@@ -3034,7 +3034,7 @@
       <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="7"/>
@@ -3047,7 +3047,7 @@
       <c r="C40" s="2">
         <v>9</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="14"/>
@@ -3058,7 +3058,7 @@
       <c r="C41" s="1">
         <v>10</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="14"/>
@@ -3069,7 +3069,7 @@
       <c r="C42" s="2">
         <v>11</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="G42" s="14"/>
@@ -3132,7 +3132,7 @@
       <c r="C47" s="1">
         <v>4</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="7"/>
@@ -3145,7 +3145,7 @@
       <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="14"/>
@@ -3156,7 +3156,7 @@
       <c r="C49" s="1">
         <v>6</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
       <c r="G49" s="14"/>
